--- a/data/trans_camb/P12C1_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P12C1_R-Edad-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -522,17 +522,17 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>M4/M1</t>
+          <t>M5/M4</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>M4/M1</t>
+          <t>M5/M4</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>M4/M1</t>
+          <t>M5/M4</t>
         </is>
       </c>
     </row>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,35</t>
+          <t>8,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,17</t>
+          <t>15,48</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,39</t>
+          <t>11,91</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,7; 5,53</t>
+          <t>-7,29; 23,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-19,38; 7,39</t>
+          <t>-1,61; 31,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,72; 2,22</t>
+          <t>1,13; 22,7</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-41,96%</t>
+          <t>121,24%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-27,71%</t>
+          <t>119,61%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-37,05%</t>
+          <t>122,69%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 186,22</t>
+          <t>-80,1; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-76,5; 122,13</t>
+          <t>-17,36; 439,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-76,29; 40,11</t>
+          <t>3,22; 494,75</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>54,98</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,25</t>
+          <t>31,82</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>43,82</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,61; 9,69</t>
+          <t>26,05; 78,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,88; 17,16</t>
+          <t>14,08; 48,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,92; 10,88</t>
+          <t>21,83; 58,54</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,91%</t>
+          <t>558,92%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>58,21%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,22%</t>
+          <t>146,0%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-60,7; 151,73</t>
+          <t>135,16; 2398,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-22,46; 41,64</t>
+          <t>21,54; 118,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-31,97; 43,53</t>
+          <t>58,95; 264,11</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>42,73</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,38</t>
+          <t>36,34</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>38,21</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,22; 8,55</t>
+          <t>28,15; 59,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,03; 14,45</t>
+          <t>24,36; 47,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 7,88</t>
+          <t>26,93; 48,35</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-4,33%</t>
+          <t>362,18%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>71,25%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,31%</t>
+          <t>109,05%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-55,07; 143,39</t>
+          <t>144,7; 1166,39</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-16,68; 31,89</t>
+          <t>42,18; 114,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-26,18; 27,46</t>
+          <t>65,59; 164,84</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,2</t>
+          <t>58,36</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>20,67</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>38,58</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-9,61; 7,46</t>
+          <t>44,05; 69,69</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 14,45</t>
+          <t>9,92; 31,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 8,89</t>
+          <t>28,84; 47,45</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-8,19%</t>
+          <t>413,95%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>30,38%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>91,23%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-53,2; 74,64</t>
+          <t>195,07; 824,3</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-11,18; 26,65</t>
+          <t>13,38; 54,66</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-16,11; 25,31</t>
+          <t>60,0; 131,86</t>
         </is>
       </c>
     </row>
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>38,95</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>10,82</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>27,98</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-11,68; 14,29</t>
+          <t>17,19; 54,65</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-13,31; 13,0</t>
+          <t>-7,2; 25,29</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-9,89; 9,37</t>
+          <t>14,82; 40,86</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>204,38%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>14,52%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>65,27%</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-48,54; 104,66</t>
+          <t>31,64; 473,11</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-19,13; 21,87</t>
+          <t>-7,5; 39,83</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-20,8; 24,51</t>
+          <t>28,95; 115,85</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-3,12</t>
+          <t>40,95</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-17,37</t>
+          <t>8,03</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-9,65</t>
+          <t>23,29</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-12,69; 5,58</t>
+          <t>22,23; 56,97</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-36,59; -1,34</t>
+          <t>-20,35; 27,77</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-20,81; 0,51</t>
+          <t>5,71; 37,62</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-25,59%</t>
+          <t>519,84%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-33,28%</t>
+          <t>16,15%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-28,26%</t>
+          <t>75,29%</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-75,24; 101,88</t>
+          <t>117,73; 2598,26</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-64,16; -4,54</t>
+          <t>-32,26; 70,25</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-53,78; 1,47</t>
+          <t>16,32; 162,0</t>
         </is>
       </c>
     </row>
@@ -1132,17 +1132,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>42,84</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-2,88</t>
+          <t>21,96</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-3,14</t>
+          <t>32,27</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 2,12</t>
+          <t>34,69; 51,46</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-9,22; 2,87</t>
+          <t>12,95; 28,93</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 0,67</t>
+          <t>26,3; 38,28</t>
         </is>
       </c>
     </row>
@@ -1178,17 +1178,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-13,4%</t>
+          <t>365,68%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-5,72%</t>
+          <t>42,29%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-9,54%</t>
+          <t>100,08%</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,24 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-37,68; 19,43</t>
+          <t>234,41; 585,29</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-17,57; 5,97</t>
+          <t>23,89; 60,09</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-20,27; 2,06</t>
+          <t>75,12; 130,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P12C1_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P12C1_R-Edad-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,209 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>8,0</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>15,48</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>11,91</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>6.875725140700284</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>16.08189983321842</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>11.58793453972347</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-7,29; 23,66</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-1,61; 31,28</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>1,13; 22,7</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-8.575381633300367</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-1.959766826428621</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0.1977469174327571</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>121,24%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>119,61%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>122,69%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>22.60215240605734</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>32.24545714847046</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>22.97822496406383</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-80,1; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-17,36; 439,97</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>3,22; 494,75</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.9379593774906614</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>1.204744529524769</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>1.122435662416188</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>54,98</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>31,82</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>43,82</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.7931175889990028</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.1543666341898826</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.01589436027237319</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>26,05; 78,47</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>14,08; 48,93</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>21,83; 58,54</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr"/>
+      <c r="D9" s="6" t="n">
+        <v>4.229319141104873</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>4.690711968792917</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>558,92%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>58,21%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>146,0%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>53.45395762630562</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>31.49980853779284</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>42.57534219588108</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>135,16; 2398,08</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>21,54; 118,85</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>58,95; 264,11</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>23.93764003987512</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>13.9528503511225</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>19.86820230180754</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>42,73</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>36,34</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>38,21</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>77.01041343153057</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>48.80357851537332</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>57.15151975494076</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>28,15; 59,23</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>24,36; 47,56</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>26,93; 48,35</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>5.005973858617716</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.570799948416063</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>1.366267167380953</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>362,18%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>71,25%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>109,05%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>1.073728081902622</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>0.2091997658783986</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>0.5349538085393746</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>144,7; 1166,39</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>42,18; 114,09</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>65,59; 164,84</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>23.17401066623574</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>1.19547541217642</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>2.445525561653142</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,287 +773,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>58,36</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>20,67</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>38,58</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>44.43510282554728</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>37.26821082706805</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>39.57927975700478</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>44,05; 69,69</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>9,92; 31,74</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>28,84; 47,45</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>29.26900339303308</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>25.49566888938858</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>28.43221303230088</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>413,95%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>30,38%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>91,23%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>60.77233479575338</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>48.84354800108666</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>49.37396663123562</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>195,07; 824,3</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>13,38; 54,66</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>60,0; 131,86</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>3.811672600307235</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.7407631956892112</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>1.149368157005618</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>38,95</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>10,82</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>27,98</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>1.528917747183673</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>0.437584162942663</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>0.7135654908484471</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>17,19; 54,65</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-7,2; 25,29</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>14,82; 40,86</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>12.09972977159764</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>1.192177963861133</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>1.744456778214617</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>204,38%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>14,52%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>65,27%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>57.50627093952949</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>21.97852681472968</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>38.83406791070412</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>31,64; 473,11</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-7,5; 39,83</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>28,95; 115,85</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>42.48722664672584</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>11.42404218378053</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>29.12211978786502</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>40,95</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>8,03</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>23,29</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>68.79327591402053</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>33.90264031572953</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>47.83122442149718</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>22,23; 56,97</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-20,35; 27,77</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>5,71; 37,62</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>3.783784776309706</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.3296316621048538</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.9230288955542274</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>519,84%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>16,15%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>75,29%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>1.710581278989988</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>0.1541970229858911</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>0.6129413127557324</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>117,73; 2598,26</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-32,26; 70,25</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>16,32; 162,0</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>7.348776393243593</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.6054806257597035</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>1.333651472476167</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1130,93 +985,315 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>42,84</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>21,96</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>32,27</t>
-        </is>
+      <c r="C28" s="5" t="n">
+        <v>39.11839431179236</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>11.74504286263238</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>28.3251319534074</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>34,69; 51,46</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>12,95; 28,93</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>26,3; 38,28</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>15.86325503739244</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>-5.68873227408304</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>14.94436030320642</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>365,68%</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>42,29%</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>100,08%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>54.90346563646244</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>26.6542823277755</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>40.8245551348746</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>234,41; 585,29</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>23,89; 60,09</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>75,12; 130,41</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>2.022772997716302</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>0.1581201814216623</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>0.6598651231516848</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>0.298922753274098</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>-0.06106840104091944</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>0.2928675863585204</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>4.844384858192093</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>0.4264650970937758</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>1.16725279524714</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>41.36496684230763</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>7.867560624713704</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>22.61175467059476</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>22.34090271707291</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>-18.97065032937087</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>4.50141864080681</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>57.20471549517389</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>29.94853054965342</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>37.70411165952154</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>5.16098031221328</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>0.1620666460032495</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>0.7270894462659128</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="n">
+        <v>1.199381982626405</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>-0.309472117061216</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>0.09747628638539184</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="n">
+        <v>24.66894122080883</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>0.7748689067777527</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>1.620671151394631</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>42.44143249374201</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>22.58716479798488</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>32.25048375291158</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>34.24084258762304</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>14.02088168703858</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>26.3270272338469</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>51.27431899512427</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>29.66535926434201</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>38.36114729203004</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>3.449153039149653</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>0.4401318284152667</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>0.9952645244174105</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>2.182176421779461</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>0.2564303930476922</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>0.7478248734736815</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>5.520526918772529</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>0.6262633469842225</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>1.294135522088719</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1224,14 +1301,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
